--- a/pareto/case_studies/input_data_generic_strategic_case_study.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drouvenm\PARETO\GitHub\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F1E98-51D3-43B7-A354-222BD18A2414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D1D44D-2E74-41D4-8CD6-DCACDEE7184C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="38" activeTab="44" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="390" yWindow="300" windowWidth="37200" windowHeight="20700" firstSheet="35" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -59,6 +59,7 @@
     <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId44"/>
     <sheet name="FreshSourcingCost" sheetId="52" r:id="rId45"/>
     <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId46"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="78" r:id="rId47"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="229">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -444,9 +445,6 @@
     <t>Table of Trucking Hourly Cost  [$/hour]</t>
   </si>
   <si>
-    <t>Table of Completoins Pad Storage Capacity  [bbl]</t>
-  </si>
-  <si>
     <t>Completions Pads to Completions Pads Piping Arcs [-]</t>
   </si>
   <si>
@@ -754,6 +752,12 @@
   </si>
   <si>
     <t>Table of Freshwater Sourcing Cost  [$/bbl]</t>
+  </si>
+  <si>
+    <t>Table of Pipeline Capacity Expansion Increments [bbl/week]</t>
+  </si>
+  <si>
+    <t>Table of Completions Pad Storage Capacity [bbl]</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1083,6 +1087,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2034,7 +2053,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2200,107 +2219,107 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2668,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2827,7 +2846,7 @@
     <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>88</v>
@@ -2851,72 +2870,72 @@
         <v>94</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -3024,7 +3043,7 @@
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3060,7 +3079,7 @@
     </row>
     <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3098,7 +3117,7 @@
     </row>
     <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3134,7 +3153,7 @@
     </row>
     <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3170,7 +3189,7 @@
     </row>
     <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3206,7 +3225,7 @@
     </row>
     <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3242,7 +3261,7 @@
     </row>
     <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3278,7 +3297,7 @@
     </row>
     <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3314,7 +3333,7 @@
     </row>
     <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3350,7 +3369,7 @@
     </row>
     <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3386,7 +3405,7 @@
     </row>
     <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3422,7 +3441,7 @@
     </row>
     <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3484,7 +3503,7 @@
     <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>88</v>
@@ -3508,67 +3527,67 @@
         <v>94</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3628,7 @@
     </row>
     <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3645,7 +3664,7 @@
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3681,7 +3700,7 @@
     </row>
     <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3727,7 +3746,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3746,13 +3765,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,7 +3787,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10">
@@ -3779,7 +3798,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3790,7 +3809,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3810,7 +3829,7 @@
   <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A31"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3826,7 +3845,7 @@
     <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>88</v>
@@ -3850,72 +3869,72 @@
         <v>94</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10">
@@ -4157,7 +4176,9 @@
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -4219,7 +4240,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4259,7 +4280,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4295,7 +4316,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4333,7 +4354,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4369,7 +4390,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4407,7 +4428,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4447,7 +4468,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4485,7 +4506,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4523,7 +4544,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4559,7 +4580,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4595,7 +4616,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4633,7 +4654,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4671,7 +4692,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4709,7 +4730,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4747,7 +4768,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4785,7 +4806,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4823,7 +4844,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4861,7 +4882,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4901,7 +4922,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4937,7 +4958,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4973,7 +4994,7 @@
     </row>
     <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5042,18 +5063,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -5127,7 +5148,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5136,7 +5157,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10">
@@ -5147,7 +5168,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5156,7 +5177,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5165,7 +5186,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5174,7 +5195,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5183,7 +5204,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5192,7 +5213,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5201,7 +5222,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5212,7 +5233,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5221,7 +5242,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5230,7 +5251,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5239,7 +5260,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5248,7 +5269,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5257,7 +5278,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5268,7 +5289,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5277,7 +5298,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5286,7 +5307,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5295,7 +5316,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5304,7 +5325,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5313,7 +5334,7 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5331,7 +5352,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5347,24 +5368,24 @@
     <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5448,7 +5469,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5458,7 +5479,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5468,7 +5489,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5478,7 +5499,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5488,7 +5509,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5500,7 +5521,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5510,7 +5531,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5520,7 +5541,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5530,7 +5551,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5542,7 +5563,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5554,7 +5575,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5564,7 +5585,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5574,7 +5595,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5584,7 +5605,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5596,7 +5617,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5606,7 +5627,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5616,7 +5637,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5626,7 +5647,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5636,7 +5657,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5646,7 +5667,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5658,7 +5679,7 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -5700,7 +5721,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5747,62 +5768,62 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5836,12 +5857,12 @@
         <v>87</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="33"/>
@@ -5899,84 +5920,84 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="33">
@@ -5985,63 +6006,63 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="33"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="33"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="33"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="33"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -6068,7 +6089,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6079,7 +6100,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -6106,13 +6127,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6134,7 +6155,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6153,13 +6174,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6186,7 +6207,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10">
@@ -6197,7 +6218,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10">
@@ -6208,7 +6229,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6219,7 +6240,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6230,7 +6251,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6241,7 +6262,7 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -6281,7 +6302,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6295,7 +6316,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12">
@@ -6313,7 +6334,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6332,149 +6353,269 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="33"/>
+        <v>135</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="33"/>
+        <v>130</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="33"/>
+        <v>132</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="33"/>
+        <v>136</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6507,13 +6648,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6540,7 +6681,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10">
@@ -6551,7 +6692,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10">
@@ -6562,7 +6703,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6573,7 +6714,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6584,7 +6725,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6595,7 +6736,7 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -6615,7 +6756,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6631,24 +6772,24 @@
     <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -6690,7 +6831,7 @@
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="10">
@@ -6708,9 +6849,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="34">
+        <v>127</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="10">
@@ -6728,9 +6869,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="34">
+        <v>128</v>
+      </c>
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="10">
@@ -6748,7 +6889,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
@@ -6768,7 +6909,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -6788,7 +6929,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
@@ -6808,7 +6949,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -6828,7 +6969,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -6848,7 +6989,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -6868,7 +7009,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -6888,7 +7029,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="10">
         <v>1</v>
@@ -6908,7 +7049,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -6928,7 +7069,7 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -6973,19 +7114,19 @@
     <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7010,7 +7151,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -7030,7 +7171,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -7050,7 +7191,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -7076,10 +7217,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7087,22 +7228,61 @@
     <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7332,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7364,145 +7544,145 @@
         <v>57</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="BA2" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="BA2" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7584,7 +7764,7 @@
     </row>
     <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -7669,7 +7849,7 @@
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -7742,7 +7922,7 @@
     </row>
     <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8013,10 +8193,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8025,12 +8205,12 @@
     <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>53</v>
@@ -8044,135 +8224,154 @@
       <c r="E2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="G2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2500</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2500</v>
-      </c>
-      <c r="F3" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -8183,201 +8382,677 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="33">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="10">
-        <v>210000</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <v>140000</v>
-      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="39">
+        <v>12000</v>
+      </c>
+      <c r="O3" s="39">
+        <v>9000</v>
+      </c>
+      <c r="P3" s="39">
+        <v>8500</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>8000</v>
+      </c>
+      <c r="R3" s="39">
+        <v>7500</v>
+      </c>
+      <c r="S3" s="39">
+        <v>7350</v>
+      </c>
+      <c r="T3" s="39">
+        <v>7250</v>
+      </c>
+      <c r="U3" s="39">
+        <v>7116.6666666666697</v>
+      </c>
+      <c r="V3" s="39">
+        <v>6991.6666666666697</v>
+      </c>
+      <c r="W3" s="39">
+        <v>6866.6666666666697</v>
+      </c>
+      <c r="X3" s="39">
+        <v>6741.6666666666697</v>
+      </c>
+      <c r="Y3" s="39">
+        <v>6616.6666666666697</v>
+      </c>
+      <c r="Z3" s="39">
+        <v>6491.6666666666697</v>
+      </c>
+      <c r="AA3" s="39">
+        <v>6366.6666666666697</v>
+      </c>
+      <c r="AB3" s="39">
+        <v>6241.6666666666697</v>
+      </c>
+      <c r="AC3" s="39">
+        <v>6116.6666666666697</v>
+      </c>
+      <c r="AD3" s="39">
+        <v>5991.6666666666697</v>
+      </c>
+      <c r="AE3" s="39">
+        <v>5866.6666666666697</v>
+      </c>
+      <c r="AF3" s="39">
+        <v>5741.6666666666697</v>
+      </c>
+      <c r="AG3" s="39">
+        <v>5616.6666666666697</v>
+      </c>
+      <c r="AH3" s="39">
+        <v>5491.6666666666697</v>
+      </c>
+      <c r="AI3" s="39">
+        <v>5366.6666666666697</v>
+      </c>
+      <c r="AJ3" s="39">
+        <v>5241.6666666666697</v>
+      </c>
+      <c r="AK3" s="39">
+        <v>5116.6666666666697</v>
+      </c>
+      <c r="AL3" s="39">
+        <v>4991.6666666666697</v>
+      </c>
+      <c r="AM3" s="39">
+        <v>4866.6666666666697</v>
+      </c>
+      <c r="AN3" s="39">
+        <v>4741.6666666666697</v>
+      </c>
+      <c r="AO3" s="39">
+        <v>4616.6666666666697</v>
+      </c>
+      <c r="AP3" s="39">
+        <v>4491.6666666666697</v>
+      </c>
+      <c r="AQ3" s="39">
+        <v>4366.6666666666697</v>
+      </c>
+      <c r="AR3" s="39">
+        <v>4241.6666666666697</v>
+      </c>
+      <c r="AS3" s="39">
+        <v>4116.6666666666697</v>
+      </c>
+      <c r="AT3" s="39">
+        <v>3991.6666666666702</v>
+      </c>
+      <c r="AU3" s="39">
+        <v>3866.6666666666702</v>
+      </c>
+      <c r="AV3" s="39">
+        <v>3741.6666666666702</v>
+      </c>
+      <c r="AW3" s="39">
+        <v>3616.6666666666702</v>
+      </c>
+      <c r="AX3" s="39">
+        <v>3491.6666666666702</v>
+      </c>
+      <c r="AY3" s="39">
+        <v>3366.6666666666702</v>
+      </c>
+      <c r="AZ3" s="39">
+        <v>3241.6666666666702</v>
+      </c>
+      <c r="BA3" s="40">
+        <v>3116.6666666666702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>210000</v>
-      </c>
-      <c r="D5" s="10">
-        <v>210000</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39">
+        <v>10000</v>
+      </c>
+      <c r="AM4" s="39">
+        <v>9500</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>9000</v>
+      </c>
+      <c r="AO4" s="39">
+        <v>8750</v>
+      </c>
+      <c r="AP4" s="39">
+        <v>8500</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>8025</v>
+      </c>
+      <c r="AR4" s="39">
+        <v>7650</v>
+      </c>
+      <c r="AS4" s="39">
+        <v>7275</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>6900</v>
+      </c>
+      <c r="AU4" s="39">
+        <v>6525</v>
+      </c>
+      <c r="AV4" s="39">
+        <v>6150</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>5775</v>
+      </c>
+      <c r="AX4" s="39">
+        <v>5400</v>
+      </c>
+      <c r="AY4" s="39">
+        <v>5025</v>
+      </c>
+      <c r="AZ4" s="39">
+        <v>4650</v>
+      </c>
+      <c r="BA4" s="40">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="33">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39">
+        <v>13500</v>
+      </c>
+      <c r="X5" s="39">
+        <v>12500</v>
+      </c>
+      <c r="Y5" s="39">
+        <v>12000</v>
+      </c>
+      <c r="Z5" s="39">
+        <v>11750</v>
+      </c>
+      <c r="AA5" s="39">
+        <v>11500</v>
+      </c>
+      <c r="AB5" s="39">
+        <v>11250</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>11150</v>
+      </c>
+      <c r="AD5" s="39">
+        <v>10900</v>
+      </c>
+      <c r="AE5" s="39">
+        <v>10695</v>
+      </c>
+      <c r="AF5" s="39">
+        <v>10490</v>
+      </c>
+      <c r="AG5" s="39">
+        <v>10285</v>
+      </c>
+      <c r="AH5" s="39">
+        <v>10080</v>
+      </c>
+      <c r="AI5" s="39">
+        <v>9875</v>
+      </c>
+      <c r="AJ5" s="39">
+        <v>9670</v>
+      </c>
+      <c r="AK5" s="39">
+        <v>9465</v>
+      </c>
+      <c r="AL5" s="39">
+        <v>9260</v>
+      </c>
+      <c r="AM5" s="39">
+        <v>9055</v>
+      </c>
+      <c r="AN5" s="39">
+        <v>8850</v>
+      </c>
+      <c r="AO5" s="39">
+        <v>8645</v>
+      </c>
+      <c r="AP5" s="39">
+        <v>8440</v>
+      </c>
+      <c r="AQ5" s="39">
+        <v>8235</v>
+      </c>
+      <c r="AR5" s="39">
+        <v>8030</v>
+      </c>
+      <c r="AS5" s="39">
+        <v>7825</v>
+      </c>
+      <c r="AT5" s="39">
+        <v>7620</v>
+      </c>
+      <c r="AU5" s="39">
+        <v>7415</v>
+      </c>
+      <c r="AV5" s="39">
+        <v>7210</v>
+      </c>
+      <c r="AW5" s="39">
+        <v>7005</v>
+      </c>
+      <c r="AX5" s="39">
+        <v>6800</v>
+      </c>
+      <c r="AY5" s="39">
+        <v>6595</v>
+      </c>
+      <c r="AZ5" s="39">
+        <v>6390</v>
+      </c>
+      <c r="BA5" s="40">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="42"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="39">
+        <v>300000</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39">
+        <v>300000</v>
+      </c>
+      <c r="D4" s="39">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="39">
+        <v>300000</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="39">
+        <v>300000</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39">
+        <v>300000</v>
+      </c>
+      <c r="J5" s="40">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="10">
-        <v>20000</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="B6" s="39">
+        <v>300000</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39">
+        <v>300000</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39">
+        <v>300000</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39">
+        <v>300000</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <v>300000</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39">
+        <v>300000</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="10">
-        <v>210000</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>210000</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39">
+        <v>300000</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39">
+        <v>300000</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
-        <v>210000</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
-        <v>210000</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39">
+        <v>300000</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
-        <v>400000</v>
-      </c>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <v>140000</v>
-      </c>
-      <c r="G11" s="10">
-        <v>210000</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
-        <v>400000</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <v>210000</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
-        <v>210000</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>210000</v>
-      </c>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
-        <v>140000</v>
-      </c>
-      <c r="K13" s="12">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41">
+        <v>75000</v>
+      </c>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -8385,7 +9060,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8396,18 +9071,18 @@
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
@@ -8448,14 +9123,6 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8465,10 +9132,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8485,12 +9152,44 @@
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12">
-        <v>210000</v>
+      <c r="B4" s="40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8571,145 +9270,145 @@
         <v>57</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="BA2" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="BA2" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -9036,7 +9735,7 @@
     </row>
     <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="10">
         <v>250000</v>
@@ -9197,7 +9896,7 @@
     </row>
     <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10">
         <v>150000</v>
@@ -9358,7 +10057,7 @@
     </row>
     <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="10">
         <v>250000</v>
@@ -9519,7 +10218,7 @@
     </row>
     <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10">
         <v>150000</v>
@@ -9680,7 +10379,7 @@
     </row>
     <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="10">
         <v>250000</v>
@@ -9841,7 +10540,7 @@
     </row>
     <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="11">
         <v>150000</v>
@@ -10054,10 +10753,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10067,19 +10766,43 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
-        <v>100000</v>
+      <c r="B3" s="33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="33">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="33">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="12">
+        <v>800000</v>
       </c>
     </row>
   </sheetData>
@@ -10157,7 +10880,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10180,7 +10903,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10203,7 +10926,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10313,10 +11036,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10324,74 +11047,134 @@
     <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6</v>
+      </c>
+      <c r="F3" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="B4" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -10405,10 +11188,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10425,15 +11208,48 @@
       <c r="A2" s="7"/>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B4" s="33">
         <v>0.4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10513,25 +11329,25 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>91</v>
@@ -10539,61 +11355,125 @@
       <c r="C2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="33">
+      <c r="D3" s="10">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
         <v>0.8</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="33">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
         <v>0.3</v>
       </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10603,7 +11483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10612,7 +11492,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10637,7 +11517,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="33">
         <v>0.25</v>
@@ -10645,7 +11525,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="33">
         <v>0.15</v>
@@ -10653,7 +11533,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="33">
         <v>0.25</v>
@@ -10661,7 +11541,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="33">
         <v>0.15</v>
@@ -10669,7 +11549,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="33">
         <v>0.25</v>
@@ -10677,7 +11557,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="12">
         <v>0.15</v>
@@ -10691,10 +11571,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10713,18 +11593,126 @@
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B7" s="33">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B8" s="12">
         <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="40">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="40">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="40">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="40">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="42">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>
@@ -10738,7 +11726,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10759,7 +11747,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10801,7 +11789,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10822,7 +11810,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10843,7 +11831,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10925,7 +11913,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10948,7 +11936,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10971,7 +11959,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10994,7 +11982,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -11017,7 +12005,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -11040,7 +12028,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -11279,7 +12267,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11455,7 +12443,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
